--- a/data/pca/factorExposure/factorExposure_2015-11-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01598503510395677</v>
+        <v>0.01330545495987927</v>
       </c>
       <c r="C2">
-        <v>0.02995283341964846</v>
+        <v>0.03624618254530636</v>
       </c>
       <c r="D2">
-        <v>0.09355945992119374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1272552961061961</v>
+      </c>
+      <c r="E2">
+        <v>-0.07089076003375296</v>
+      </c>
+      <c r="F2">
+        <v>-0.02658817911812221</v>
+      </c>
+      <c r="G2">
+        <v>0.06981075410339384</v>
+      </c>
+      <c r="H2">
+        <v>-0.08450086815885263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01845187459143886</v>
+        <v>0.01061444055167003</v>
       </c>
       <c r="C3">
-        <v>0.05901804664030255</v>
+        <v>0.04390600431909124</v>
       </c>
       <c r="D3">
-        <v>0.09440337047277313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05834066106771432</v>
+      </c>
+      <c r="E3">
+        <v>-0.0424748226311096</v>
+      </c>
+      <c r="F3">
+        <v>-0.05332003983560391</v>
+      </c>
+      <c r="G3">
+        <v>0.09600304069966598</v>
+      </c>
+      <c r="H3">
+        <v>-0.03119273225687964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05532769422689759</v>
+        <v>0.05345409117111748</v>
       </c>
       <c r="C4">
-        <v>0.04359236104763797</v>
+        <v>0.06597016978980037</v>
       </c>
       <c r="D4">
-        <v>0.1174874818003734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1413473597245359</v>
+      </c>
+      <c r="E4">
+        <v>-0.05801436599486534</v>
+      </c>
+      <c r="F4">
+        <v>-0.02385420154418776</v>
+      </c>
+      <c r="G4">
+        <v>-0.03676727959725251</v>
+      </c>
+      <c r="H4">
+        <v>0.02352166336146591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04152018797996581</v>
+        <v>0.03983515412720513</v>
       </c>
       <c r="C6">
-        <v>0.01545799890023517</v>
+        <v>0.02857787129677423</v>
       </c>
       <c r="D6">
-        <v>0.1363878525547853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1385783860470977</v>
+      </c>
+      <c r="E6">
+        <v>-0.03036991337277997</v>
+      </c>
+      <c r="F6">
+        <v>-0.01460013023735255</v>
+      </c>
+      <c r="G6">
+        <v>0.008068078326886758</v>
+      </c>
+      <c r="H6">
+        <v>-0.01336914986761859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01822105589169823</v>
+        <v>0.0126143931666916</v>
       </c>
       <c r="C7">
-        <v>0.0183038487355938</v>
+        <v>0.03113748095809326</v>
       </c>
       <c r="D7">
-        <v>0.09917152481855754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09642635056917415</v>
+      </c>
+      <c r="E7">
+        <v>-0.0241466681334432</v>
+      </c>
+      <c r="F7">
+        <v>-0.02173828494244568</v>
+      </c>
+      <c r="G7">
+        <v>1.290728532062321e-05</v>
+      </c>
+      <c r="H7">
+        <v>-0.1112028321293536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009925551193655593</v>
+        <v>0.006725505828403034</v>
       </c>
       <c r="C8">
-        <v>0.02768131643531317</v>
+        <v>0.03778130989137203</v>
       </c>
       <c r="D8">
-        <v>0.05892876850047663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07760919378050003</v>
+      </c>
+      <c r="E8">
+        <v>-0.0347829573047791</v>
+      </c>
+      <c r="F8">
+        <v>-0.04453646301037367</v>
+      </c>
+      <c r="G8">
+        <v>0.01621835781747371</v>
+      </c>
+      <c r="H8">
+        <v>-0.04127967183652497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04518286982633671</v>
+        <v>0.04252614528343331</v>
       </c>
       <c r="C9">
-        <v>0.04403122495139208</v>
+        <v>0.06225709284735369</v>
       </c>
       <c r="D9">
-        <v>0.1077506879631241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1206543327018314</v>
+      </c>
+      <c r="E9">
+        <v>-0.0426901385071742</v>
+      </c>
+      <c r="F9">
+        <v>-0.005151357517150112</v>
+      </c>
+      <c r="G9">
+        <v>-0.02707514060351123</v>
+      </c>
+      <c r="H9">
+        <v>-0.007022909776784925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09841256496280722</v>
+        <v>0.1430302225368865</v>
       </c>
       <c r="C10">
-        <v>-0.1906607034824121</v>
+        <v>-0.1888332602946478</v>
       </c>
       <c r="D10">
-        <v>-0.004722534056295295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.00473439202384707</v>
+      </c>
+      <c r="E10">
+        <v>-0.04668185671305779</v>
+      </c>
+      <c r="F10">
+        <v>-0.02819242783380935</v>
+      </c>
+      <c r="G10">
+        <v>-0.02970229040076952</v>
+      </c>
+      <c r="H10">
+        <v>0.002188549223179625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03269950349978288</v>
+        <v>0.02826424482844273</v>
       </c>
       <c r="C11">
-        <v>0.0376618710432023</v>
+        <v>0.04437624529044856</v>
       </c>
       <c r="D11">
-        <v>0.05680774699578781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05800185787097349</v>
+      </c>
+      <c r="E11">
+        <v>0.005195871884732662</v>
+      </c>
+      <c r="F11">
+        <v>-0.002726164734159664</v>
+      </c>
+      <c r="G11">
+        <v>0.0003447489920508725</v>
+      </c>
+      <c r="H11">
+        <v>-0.0461378174350031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03953329006341753</v>
+        <v>0.03339502658737705</v>
       </c>
       <c r="C12">
-        <v>0.03821874138084342</v>
+        <v>0.04602278122980191</v>
       </c>
       <c r="D12">
-        <v>0.06013366210785331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05788180136767022</v>
+      </c>
+      <c r="E12">
+        <v>-0.001465052605103247</v>
+      </c>
+      <c r="F12">
+        <v>0.006187791296544763</v>
+      </c>
+      <c r="G12">
+        <v>0.002149080138335494</v>
+      </c>
+      <c r="H12">
+        <v>-0.05978308522762513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01508658977687549</v>
+        <v>0.01659103878486388</v>
       </c>
       <c r="C13">
-        <v>0.03091935341250391</v>
+        <v>0.03761023455879182</v>
       </c>
       <c r="D13">
-        <v>0.1262838955106915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.148701849403183</v>
+      </c>
+      <c r="E13">
+        <v>-0.04009667196728204</v>
+      </c>
+      <c r="F13">
+        <v>-0.0399337273683622</v>
+      </c>
+      <c r="G13">
+        <v>0.008271488190555225</v>
+      </c>
+      <c r="H13">
+        <v>-0.09490184739382695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006070663375324127</v>
+        <v>0.007464307235728</v>
       </c>
       <c r="C14">
-        <v>0.01754322998989634</v>
+        <v>0.0235214029830251</v>
       </c>
       <c r="D14">
-        <v>0.08617197541161492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09230171414056983</v>
+      </c>
+      <c r="E14">
+        <v>-0.03444322590836987</v>
+      </c>
+      <c r="F14">
+        <v>-0.0001122860762292629</v>
+      </c>
+      <c r="G14">
+        <v>0.0122453517321546</v>
+      </c>
+      <c r="H14">
+        <v>-0.09434084117566659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002282729977811798</v>
+        <v>0.001398494678548676</v>
       </c>
       <c r="C15">
-        <v>0.002341349696352315</v>
+        <v>0.01159093062489067</v>
       </c>
       <c r="D15">
-        <v>0.002465883652538098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03492358551707682</v>
+      </c>
+      <c r="E15">
+        <v>-0.00838523656421042</v>
+      </c>
+      <c r="F15">
+        <v>0.0004716583675555241</v>
+      </c>
+      <c r="G15">
+        <v>0.008070366974272795</v>
+      </c>
+      <c r="H15">
+        <v>-0.008832103197274807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03289850339165409</v>
+        <v>0.02894044037255963</v>
       </c>
       <c r="C16">
-        <v>0.0398230593112717</v>
+        <v>0.04433062375561671</v>
       </c>
       <c r="D16">
-        <v>0.06631201706699429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06386287659306186</v>
+      </c>
+      <c r="E16">
+        <v>-0.007191076906942536</v>
+      </c>
+      <c r="F16">
+        <v>0.005934951394396402</v>
+      </c>
+      <c r="G16">
+        <v>-0.0001138363684554122</v>
+      </c>
+      <c r="H16">
+        <v>-0.05761566692106242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009084232053931208</v>
+        <v>0.006157341057476548</v>
       </c>
       <c r="C19">
-        <v>0.02631359083529691</v>
+        <v>0.02217326994485591</v>
       </c>
       <c r="D19">
-        <v>0.1544912641969231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1199440817283561</v>
+      </c>
+      <c r="E19">
+        <v>-0.06167762971898456</v>
+      </c>
+      <c r="F19">
+        <v>0.002289097846829581</v>
+      </c>
+      <c r="G19">
+        <v>0.0251731113955702</v>
+      </c>
+      <c r="H19">
+        <v>-0.06677015168883735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01567812301498947</v>
+        <v>0.01523734258758622</v>
       </c>
       <c r="C20">
-        <v>0.02568135063051272</v>
+        <v>0.03309064485836718</v>
       </c>
       <c r="D20">
-        <v>0.08418934660136533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1006871250609211</v>
+      </c>
+      <c r="E20">
+        <v>-0.05286116158448667</v>
+      </c>
+      <c r="F20">
+        <v>-0.002738735861522468</v>
+      </c>
+      <c r="G20">
+        <v>-0.0005405448197966141</v>
+      </c>
+      <c r="H20">
+        <v>-0.05634399260230679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009133615524906961</v>
+        <v>0.01079166493857484</v>
       </c>
       <c r="C21">
-        <v>0.03162542999988327</v>
+        <v>0.03872345082108138</v>
       </c>
       <c r="D21">
-        <v>0.1288597163737605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1408814514488328</v>
+      </c>
+      <c r="E21">
+        <v>-0.08220461660805178</v>
+      </c>
+      <c r="F21">
+        <v>-0.005357215494721378</v>
+      </c>
+      <c r="G21">
+        <v>-0.01983668178884761</v>
+      </c>
+      <c r="H21">
+        <v>-0.1126811150928643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006851325841616962</v>
+        <v>0.005618216647087197</v>
       </c>
       <c r="C22">
-        <v>0.02877770903470645</v>
+        <v>0.04197267508318091</v>
       </c>
       <c r="D22">
-        <v>0.09580872501928436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1513804088208185</v>
+      </c>
+      <c r="E22">
+        <v>-0.03172692474407972</v>
+      </c>
+      <c r="F22">
+        <v>-0.08821249447975192</v>
+      </c>
+      <c r="G22">
+        <v>0.07448036391766501</v>
+      </c>
+      <c r="H22">
+        <v>0.0754073694592592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006971828096644297</v>
+        <v>0.005718808345180045</v>
       </c>
       <c r="C23">
-        <v>0.0287208748907477</v>
+        <v>0.04243394639760718</v>
       </c>
       <c r="D23">
-        <v>0.09510276058663786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1508027102816226</v>
+      </c>
+      <c r="E23">
+        <v>-0.03201124547724979</v>
+      </c>
+      <c r="F23">
+        <v>-0.08819700855926971</v>
+      </c>
+      <c r="G23">
+        <v>0.0735189544243542</v>
+      </c>
+      <c r="H23">
+        <v>0.07553070844318088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0365556763262283</v>
+        <v>0.03071538295473407</v>
       </c>
       <c r="C24">
-        <v>0.04821615680620321</v>
+        <v>0.05602860732593899</v>
       </c>
       <c r="D24">
-        <v>0.06417518702379181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06599308070077287</v>
+      </c>
+      <c r="E24">
+        <v>-0.01403472155828547</v>
+      </c>
+      <c r="F24">
+        <v>0.00220733905138184</v>
+      </c>
+      <c r="G24">
+        <v>-0.006687495997755998</v>
+      </c>
+      <c r="H24">
+        <v>-0.07088616434852647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03976725099753754</v>
+        <v>0.03491593435007902</v>
       </c>
       <c r="C25">
-        <v>0.04751045054421469</v>
+        <v>0.05318686625001025</v>
       </c>
       <c r="D25">
-        <v>0.06478628339055363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06322326425311491</v>
+      </c>
+      <c r="E25">
+        <v>-0.01408228246371151</v>
+      </c>
+      <c r="F25">
+        <v>-0.002487820613481406</v>
+      </c>
+      <c r="G25">
+        <v>-0.004641522317185568</v>
+      </c>
+      <c r="H25">
+        <v>-0.05472000074838423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01831953831241658</v>
+        <v>0.01824999643798203</v>
       </c>
       <c r="C26">
-        <v>0.008478085500827294</v>
+        <v>0.01742513440789667</v>
       </c>
       <c r="D26">
-        <v>0.05479919180730976</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06472199721030782</v>
+      </c>
+      <c r="E26">
+        <v>-0.02382117326679668</v>
+      </c>
+      <c r="F26">
+        <v>-0.007652546099431001</v>
+      </c>
+      <c r="G26">
+        <v>0.003854549548545234</v>
+      </c>
+      <c r="H26">
+        <v>-0.05918111623289781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1461395814468509</v>
+        <v>0.2023038046450897</v>
       </c>
       <c r="C28">
-        <v>-0.2677414515860696</v>
+        <v>-0.252084030642842</v>
       </c>
       <c r="D28">
-        <v>-0.03539112948496316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01381821777801221</v>
+      </c>
+      <c r="E28">
+        <v>-0.0776728566768296</v>
+      </c>
+      <c r="F28">
+        <v>-0.009845707890099536</v>
+      </c>
+      <c r="G28">
+        <v>-0.05909633021539663</v>
+      </c>
+      <c r="H28">
+        <v>-0.01199623325988525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003658413690975164</v>
+        <v>0.005152405667119652</v>
       </c>
       <c r="C29">
-        <v>0.01727893197174777</v>
+        <v>0.02220320619064915</v>
       </c>
       <c r="D29">
-        <v>0.06969364780917074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08837073178335915</v>
+      </c>
+      <c r="E29">
+        <v>-0.03055354833607494</v>
+      </c>
+      <c r="F29">
+        <v>-0.01481126402833641</v>
+      </c>
+      <c r="G29">
+        <v>-0.006422418738043924</v>
+      </c>
+      <c r="H29">
+        <v>-0.09950750646746816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03767321359217486</v>
+        <v>0.04150399896643119</v>
       </c>
       <c r="C30">
-        <v>0.03468074922535252</v>
+        <v>0.06051352497062844</v>
       </c>
       <c r="D30">
-        <v>0.1656324415946323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1794937022174884</v>
+      </c>
+      <c r="E30">
+        <v>-0.0214199861651501</v>
+      </c>
+      <c r="F30">
+        <v>-0.01579504150500613</v>
+      </c>
+      <c r="G30">
+        <v>0.0180791028500267</v>
+      </c>
+      <c r="H30">
+        <v>0.0008218993247704563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06654339788837794</v>
+        <v>0.05426782153881259</v>
       </c>
       <c r="C31">
-        <v>0.05130549116424178</v>
+        <v>0.07372538622845873</v>
       </c>
       <c r="D31">
-        <v>0.06643752393187664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05255647938776602</v>
+      </c>
+      <c r="E31">
+        <v>-0.02899243054005631</v>
+      </c>
+      <c r="F31">
+        <v>-0.03129560527823443</v>
+      </c>
+      <c r="G31">
+        <v>-0.01597806034095489</v>
+      </c>
+      <c r="H31">
+        <v>-0.04532012255415964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004523446129471977</v>
+        <v>0.01149983484768242</v>
       </c>
       <c r="C32">
-        <v>0.01886940657159691</v>
+        <v>0.01763577307556482</v>
       </c>
       <c r="D32">
-        <v>0.06062744848337236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1065342463767856</v>
+      </c>
+      <c r="E32">
+        <v>-0.09597852792843473</v>
+      </c>
+      <c r="F32">
+        <v>-0.01915595507486257</v>
+      </c>
+      <c r="G32">
+        <v>-0.01869518861269216</v>
+      </c>
+      <c r="H32">
+        <v>-0.09508524544404108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02349282862683904</v>
+        <v>0.02292579618072074</v>
       </c>
       <c r="C33">
-        <v>0.03073473914083855</v>
+        <v>0.04400256404443818</v>
       </c>
       <c r="D33">
-        <v>0.1311712850849578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1334481275603919</v>
+      </c>
+      <c r="E33">
+        <v>-0.04249094233720979</v>
+      </c>
+      <c r="F33">
+        <v>-0.01917867195351769</v>
+      </c>
+      <c r="G33">
+        <v>0.004438029310728963</v>
+      </c>
+      <c r="H33">
+        <v>-0.06579408015360846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03407116965230459</v>
+        <v>0.02671794655017229</v>
       </c>
       <c r="C34">
-        <v>0.06000883370522577</v>
+        <v>0.06080632417658342</v>
       </c>
       <c r="D34">
-        <v>0.06739543553077115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0556603142427859</v>
+      </c>
+      <c r="E34">
+        <v>0.003855034634581787</v>
+      </c>
+      <c r="F34">
+        <v>0.008365820777811577</v>
+      </c>
+      <c r="G34">
+        <v>0.003105402904815036</v>
+      </c>
+      <c r="H34">
+        <v>-0.07562823123643594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008671972828336712</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009086802159823964</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.005679192795130491</v>
+      </c>
+      <c r="E35">
+        <v>-0.001322953341719347</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006387860641324621</v>
+      </c>
+      <c r="G35">
+        <v>0.001122805618973377</v>
+      </c>
+      <c r="H35">
+        <v>-0.002189589328034527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01986784068219902</v>
+        <v>0.01920942806227221</v>
       </c>
       <c r="C36">
-        <v>0.00278147325614355</v>
+        <v>0.01370728490690104</v>
       </c>
       <c r="D36">
-        <v>0.0699641789548508</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07665667187811318</v>
+      </c>
+      <c r="E36">
+        <v>-0.03117371970332363</v>
+      </c>
+      <c r="F36">
+        <v>-0.005741111827187791</v>
+      </c>
+      <c r="G36">
+        <v>-0.008943275625667661</v>
+      </c>
+      <c r="H36">
+        <v>-0.05149263518886953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02030662760260777</v>
+        <v>0.02028465197925518</v>
       </c>
       <c r="C38">
-        <v>0.01476052039526141</v>
+        <v>0.0198575764374781</v>
       </c>
       <c r="D38">
-        <v>0.05381180992028723</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06076848597214769</v>
+      </c>
+      <c r="E38">
+        <v>-0.03470199144671417</v>
+      </c>
+      <c r="F38">
+        <v>0.005717254905068947</v>
+      </c>
+      <c r="G38">
+        <v>0.03743497318593256</v>
+      </c>
+      <c r="H38">
+        <v>-0.03723841145747972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03891167596985091</v>
+        <v>0.03504832364014764</v>
       </c>
       <c r="C39">
-        <v>0.04894779838653527</v>
+        <v>0.06687470610271985</v>
       </c>
       <c r="D39">
-        <v>0.08762510115402092</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1039928020551843</v>
+      </c>
+      <c r="E39">
+        <v>-0.008336910679976422</v>
+      </c>
+      <c r="F39">
+        <v>0.02400492177827824</v>
+      </c>
+      <c r="G39">
+        <v>0.0008013393155726438</v>
+      </c>
+      <c r="H39">
+        <v>-0.08684887591997321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01796474167047613</v>
+        <v>0.01239659120749118</v>
       </c>
       <c r="C40">
-        <v>0.04416260268025691</v>
+        <v>0.04073664285335214</v>
       </c>
       <c r="D40">
-        <v>0.06994914590953821</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08029145397373018</v>
+      </c>
+      <c r="E40">
+        <v>-0.05959073943749263</v>
+      </c>
+      <c r="F40">
+        <v>-0.07534747455368963</v>
+      </c>
+      <c r="G40">
+        <v>0.06985190184351964</v>
+      </c>
+      <c r="H40">
+        <v>-0.1571213506115605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02496938372567571</v>
+        <v>0.02380280391862029</v>
       </c>
       <c r="C41">
-        <v>-0.00136252102005321</v>
+        <v>0.008412692468059275</v>
       </c>
       <c r="D41">
-        <v>0.06493603299328236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05613397975623098</v>
+      </c>
+      <c r="E41">
+        <v>-0.05359343896782846</v>
+      </c>
+      <c r="F41">
+        <v>-0.00422253551277598</v>
+      </c>
+      <c r="G41">
+        <v>0.01758320957827234</v>
+      </c>
+      <c r="H41">
+        <v>-0.04491184750606437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0293786830511181</v>
+        <v>0.02356273023089116</v>
       </c>
       <c r="C43">
-        <v>0.009418814043609563</v>
+        <v>0.01851441624619953</v>
       </c>
       <c r="D43">
-        <v>0.1014202722716819</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08348762051344287</v>
+      </c>
+      <c r="E43">
+        <v>-0.03110484893772923</v>
+      </c>
+      <c r="F43">
+        <v>-0.00656893673161684</v>
+      </c>
+      <c r="G43">
+        <v>0.01632767731989312</v>
+      </c>
+      <c r="H43">
+        <v>-0.06942199835850955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0134324897492363</v>
+        <v>0.01565191646341095</v>
       </c>
       <c r="C44">
-        <v>0.04439750069550567</v>
+        <v>0.04225692942225905</v>
       </c>
       <c r="D44">
-        <v>0.07537393805077525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09864580405244153</v>
+      </c>
+      <c r="E44">
+        <v>-0.06306126631819854</v>
+      </c>
+      <c r="F44">
+        <v>-0.01516241638252318</v>
+      </c>
+      <c r="G44">
+        <v>0.005426410623488451</v>
+      </c>
+      <c r="H44">
+        <v>-0.0716807127309842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01577079683146049</v>
+        <v>0.01406520253554114</v>
       </c>
       <c r="C46">
-        <v>0.02124211575340927</v>
+        <v>0.02933683663006778</v>
       </c>
       <c r="D46">
-        <v>0.08020009928631591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0872234794770357</v>
+      </c>
+      <c r="E46">
+        <v>-0.03514265860309562</v>
+      </c>
+      <c r="F46">
+        <v>0.01139772927754564</v>
+      </c>
+      <c r="G46">
+        <v>-0.01279273337789005</v>
+      </c>
+      <c r="H46">
+        <v>-0.1048994199910384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09610852528617894</v>
+        <v>0.08099993119117065</v>
       </c>
       <c r="C47">
-        <v>0.0693056119647341</v>
+        <v>0.09064490238016508</v>
       </c>
       <c r="D47">
-        <v>0.04534347050272253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03378741260007841</v>
+      </c>
+      <c r="E47">
+        <v>-0.03684793194500145</v>
+      </c>
+      <c r="F47">
+        <v>-0.0191892468596183</v>
+      </c>
+      <c r="G47">
+        <v>-0.03177251622660893</v>
+      </c>
+      <c r="H47">
+        <v>-0.02511632787730818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01368280292110552</v>
+        <v>0.01618431796071972</v>
       </c>
       <c r="C48">
-        <v>0.01333543418958209</v>
+        <v>0.01855536981584638</v>
       </c>
       <c r="D48">
-        <v>0.0619996345974907</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07275983870112616</v>
+      </c>
+      <c r="E48">
+        <v>-0.05028782737655399</v>
+      </c>
+      <c r="F48">
+        <v>-0.00347901719757627</v>
+      </c>
+      <c r="G48">
+        <v>-0.005796799118857568</v>
+      </c>
+      <c r="H48">
+        <v>-0.05769683397317997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06112037293946531</v>
+        <v>0.05223049613299727</v>
       </c>
       <c r="C50">
-        <v>0.05174524069648732</v>
+        <v>0.0670484901737303</v>
       </c>
       <c r="D50">
-        <v>0.06497499251130059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05571598918359021</v>
+      </c>
+      <c r="E50">
+        <v>-0.04149201651848335</v>
+      </c>
+      <c r="F50">
+        <v>-0.04066090894301122</v>
+      </c>
+      <c r="G50">
+        <v>0.01949087869781842</v>
+      </c>
+      <c r="H50">
+        <v>-0.04231252346198827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0112262405472761</v>
+        <v>0.01120188331342499</v>
       </c>
       <c r="C51">
-        <v>0.01606694278962062</v>
+        <v>0.02104047973446872</v>
       </c>
       <c r="D51">
-        <v>0.07855940384337216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0902678799978525</v>
+      </c>
+      <c r="E51">
+        <v>-0.01532557669161978</v>
+      </c>
+      <c r="F51">
+        <v>-0.006203654557112653</v>
+      </c>
+      <c r="G51">
+        <v>0.0142808745285775</v>
+      </c>
+      <c r="H51">
+        <v>-0.06603618138161753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09046341429945828</v>
+        <v>0.08567628538544622</v>
       </c>
       <c r="C53">
-        <v>0.08524243691126175</v>
+        <v>0.1014853828599911</v>
       </c>
       <c r="D53">
-        <v>0.002524360746073562</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0143097801755668</v>
+      </c>
+      <c r="E53">
+        <v>-0.1110540063887904</v>
+      </c>
+      <c r="F53">
+        <v>-0.04595126041070348</v>
+      </c>
+      <c r="G53">
+        <v>-0.08344081649241075</v>
+      </c>
+      <c r="H53">
+        <v>-0.009589585154342757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02884324340184346</v>
+        <v>0.0254589441181842</v>
       </c>
       <c r="C54">
-        <v>0.02725337613299032</v>
+        <v>0.03499841538057618</v>
       </c>
       <c r="D54">
-        <v>0.08882663950764824</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08782049197816706</v>
+      </c>
+      <c r="E54">
+        <v>-0.03844680821992291</v>
+      </c>
+      <c r="F54">
+        <v>0.007559864132899404</v>
+      </c>
+      <c r="G54">
+        <v>0.02273377618626635</v>
+      </c>
+      <c r="H54">
+        <v>-0.1094950589061371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0936184665977111</v>
+        <v>0.08407850537268698</v>
       </c>
       <c r="C55">
-        <v>0.05756146977219893</v>
+        <v>0.08071064332737508</v>
       </c>
       <c r="D55">
-        <v>-0.01615026310369665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007495406479092948</v>
+      </c>
+      <c r="E55">
+        <v>-0.05974649246790997</v>
+      </c>
+      <c r="F55">
+        <v>-0.04109125777398011</v>
+      </c>
+      <c r="G55">
+        <v>-0.04308705459029819</v>
+      </c>
+      <c r="H55">
+        <v>0.001078726782296489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1409241913612633</v>
+        <v>0.1281760983329157</v>
       </c>
       <c r="C56">
-        <v>0.09375614219774428</v>
+        <v>0.1256894342082522</v>
       </c>
       <c r="D56">
-        <v>-0.007522064404145505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01042223244040772</v>
+      </c>
+      <c r="E56">
+        <v>-0.06246521511439666</v>
+      </c>
+      <c r="F56">
+        <v>-0.02737457494803042</v>
+      </c>
+      <c r="G56">
+        <v>-0.03923538968095375</v>
+      </c>
+      <c r="H56">
+        <v>-0.004540930349349923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01774142438577499</v>
+        <v>0.02689542422745458</v>
       </c>
       <c r="C58">
-        <v>-0.001351091773181946</v>
+        <v>0.02975325930156844</v>
       </c>
       <c r="D58">
-        <v>0.3027135238371633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3564158239432538</v>
+      </c>
+      <c r="E58">
+        <v>-0.1874861752531878</v>
+      </c>
+      <c r="F58">
+        <v>-0.1285593805181403</v>
+      </c>
+      <c r="G58">
+        <v>0.2322799136705756</v>
+      </c>
+      <c r="H58">
+        <v>0.4001726981827885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1385938911814419</v>
+        <v>0.1793891357550113</v>
       </c>
       <c r="C59">
-        <v>-0.1928712753462879</v>
+        <v>-0.1681477135107764</v>
       </c>
       <c r="D59">
-        <v>0.02875821223807132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05056054447811634</v>
+      </c>
+      <c r="E59">
+        <v>-0.01712062112365454</v>
+      </c>
+      <c r="F59">
+        <v>0.04324564815497433</v>
+      </c>
+      <c r="G59">
+        <v>0.002484369442246403</v>
+      </c>
+      <c r="H59">
+        <v>0.02567211916146893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2490200972495569</v>
+        <v>0.2292052795576018</v>
       </c>
       <c r="C60">
-        <v>0.05820197610252639</v>
+        <v>0.1047595584408646</v>
       </c>
       <c r="D60">
-        <v>0.2074283136656556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1192397509567418</v>
+      </c>
+      <c r="E60">
+        <v>0.3588862974835051</v>
+      </c>
+      <c r="F60">
+        <v>-0.02308118606086305</v>
+      </c>
+      <c r="G60">
+        <v>-0.03834076287007171</v>
+      </c>
+      <c r="H60">
+        <v>0.1309339080330005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04549903799451135</v>
+        <v>0.03981605853773233</v>
       </c>
       <c r="C61">
-        <v>0.04972559795474172</v>
+        <v>0.06185235475286344</v>
       </c>
       <c r="D61">
-        <v>0.0975879371641257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09163206248977403</v>
+      </c>
+      <c r="E61">
+        <v>-0.002376137571532354</v>
+      </c>
+      <c r="F61">
+        <v>0.01804486348185471</v>
+      </c>
+      <c r="G61">
+        <v>-0.006102224530134121</v>
+      </c>
+      <c r="H61">
+        <v>-0.07626377710765206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01697093927494388</v>
+        <v>0.01494395984713205</v>
       </c>
       <c r="C63">
-        <v>0.02262067151493536</v>
+        <v>0.03240923075710575</v>
       </c>
       <c r="D63">
-        <v>0.0599710003521239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06770480762349511</v>
+      </c>
+      <c r="E63">
+        <v>-0.02898670075070359</v>
+      </c>
+      <c r="F63">
+        <v>-0.01986511798174307</v>
+      </c>
+      <c r="G63">
+        <v>0.001879653529543014</v>
+      </c>
+      <c r="H63">
+        <v>-0.04714659658950123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05891251333633287</v>
+        <v>0.0520919758365226</v>
       </c>
       <c r="C64">
-        <v>0.06438246822955623</v>
+        <v>0.08175629560695881</v>
       </c>
       <c r="D64">
-        <v>0.05940470146246352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05554053392496005</v>
+      </c>
+      <c r="E64">
+        <v>-0.02408458199269493</v>
+      </c>
+      <c r="F64">
+        <v>0.01292892297988827</v>
+      </c>
+      <c r="G64">
+        <v>-0.05497823651655216</v>
+      </c>
+      <c r="H64">
+        <v>-0.05637006065886086</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04739225938312418</v>
+        <v>0.04507267644766796</v>
       </c>
       <c r="C65">
-        <v>0.0100787162841564</v>
+        <v>0.02704896720548399</v>
       </c>
       <c r="D65">
-        <v>0.113553590733561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1173746134607364</v>
+      </c>
+      <c r="E65">
+        <v>-0.003596402206141712</v>
+      </c>
+      <c r="F65">
+        <v>-0.01674718490858791</v>
+      </c>
+      <c r="G65">
+        <v>0.03006903595184273</v>
+      </c>
+      <c r="H65">
+        <v>0.0276161927793643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04382173580359457</v>
+        <v>0.03932058293140518</v>
       </c>
       <c r="C66">
-        <v>0.05613352654292986</v>
+        <v>0.0766207656113788</v>
       </c>
       <c r="D66">
-        <v>0.1102316981103702</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1314295567650526</v>
+      </c>
+      <c r="E66">
+        <v>-0.01451791740097</v>
+      </c>
+      <c r="F66">
+        <v>0.01203291512083382</v>
+      </c>
+      <c r="G66">
+        <v>0.01477860904367009</v>
+      </c>
+      <c r="H66">
+        <v>-0.05184449992088926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04027437076147242</v>
+        <v>0.03779681645922599</v>
       </c>
       <c r="C67">
-        <v>0.01856862446629664</v>
+        <v>0.02603567167158959</v>
       </c>
       <c r="D67">
-        <v>0.02450523658184962</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02087433590625758</v>
+      </c>
+      <c r="E67">
+        <v>-0.0130762258741527</v>
+      </c>
+      <c r="F67">
+        <v>0.004912369226745841</v>
+      </c>
+      <c r="G67">
+        <v>0.03300269211487523</v>
+      </c>
+      <c r="H67">
+        <v>-0.03703481985215142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1570995057600445</v>
+        <v>0.1954947506088832</v>
       </c>
       <c r="C68">
-        <v>-0.2367967473732588</v>
+        <v>-0.1969904437602802</v>
       </c>
       <c r="D68">
-        <v>-0.02163601476744003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.009478343611027023</v>
+      </c>
+      <c r="E68">
+        <v>-0.04987901259092972</v>
+      </c>
+      <c r="F68">
+        <v>-0.03261055105742851</v>
+      </c>
+      <c r="G68">
+        <v>0.008999767253633287</v>
+      </c>
+      <c r="H68">
+        <v>0.007115007002713746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08614403900259496</v>
+        <v>0.07285531513695406</v>
       </c>
       <c r="C69">
-        <v>0.08396351781893506</v>
+        <v>0.09648211832711052</v>
       </c>
       <c r="D69">
-        <v>0.06580988232596116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0470106895467178</v>
+      </c>
+      <c r="E69">
+        <v>-0.02208832599964893</v>
+      </c>
+      <c r="F69">
+        <v>-0.007163455476843054</v>
+      </c>
+      <c r="G69">
+        <v>-0.02647597374641845</v>
+      </c>
+      <c r="H69">
+        <v>-0.03592306692995355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1387373857633594</v>
+        <v>0.1843666882690434</v>
       </c>
       <c r="C71">
-        <v>-0.241311142687884</v>
+        <v>-0.2088961782941806</v>
       </c>
       <c r="D71">
-        <v>0.01647412006597331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0386350613169187</v>
+      </c>
+      <c r="E71">
+        <v>-0.05441383394336313</v>
+      </c>
+      <c r="F71">
+        <v>-0.03437267818673657</v>
+      </c>
+      <c r="G71">
+        <v>-0.01265479840984062</v>
+      </c>
+      <c r="H71">
+        <v>-0.02700796478852951</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0975878765573638</v>
+        <v>0.09852805969727083</v>
       </c>
       <c r="C72">
-        <v>0.04197750805437582</v>
+        <v>0.07169560414860639</v>
       </c>
       <c r="D72">
-        <v>0.08873515120726271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09450473538846967</v>
+      </c>
+      <c r="E72">
+        <v>0.03161470769600948</v>
+      </c>
+      <c r="F72">
+        <v>-0.0403814064659247</v>
+      </c>
+      <c r="G72">
+        <v>-0.03540895516756419</v>
+      </c>
+      <c r="H72">
+        <v>-0.03528102091781316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2669451711569731</v>
+        <v>0.2425703821033598</v>
       </c>
       <c r="C73">
-        <v>0.01892865175440541</v>
+        <v>0.09233861400325566</v>
       </c>
       <c r="D73">
-        <v>0.3330673332820748</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1701735073421985</v>
+      </c>
+      <c r="E73">
+        <v>0.6658979127725774</v>
+      </c>
+      <c r="F73">
+        <v>-0.002499956213235184</v>
+      </c>
+      <c r="G73">
+        <v>-0.03401488621548553</v>
+      </c>
+      <c r="H73">
+        <v>0.1593123092364073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1097600103596076</v>
+        <v>0.09757525340008671</v>
       </c>
       <c r="C74">
-        <v>0.06793873870169295</v>
+        <v>0.09119816646887208</v>
       </c>
       <c r="D74">
-        <v>0.002984727060415537</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.005104409660235131</v>
+      </c>
+      <c r="E74">
+        <v>-0.07802577856289329</v>
+      </c>
+      <c r="F74">
+        <v>-0.06526169732955958</v>
+      </c>
+      <c r="G74">
+        <v>-0.05768070880033949</v>
+      </c>
+      <c r="H74">
+        <v>0.02842536641955054</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2492441657875863</v>
+        <v>0.2256029936643802</v>
       </c>
       <c r="C75">
-        <v>0.1263598109587243</v>
+        <v>0.1674563344950941</v>
       </c>
       <c r="D75">
-        <v>-0.07260754969384683</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09642185566016899</v>
+      </c>
+      <c r="E75">
+        <v>-0.1045032417967614</v>
+      </c>
+      <c r="F75">
+        <v>0.01612816458902023</v>
+      </c>
+      <c r="G75">
+        <v>-0.04084211824492177</v>
+      </c>
+      <c r="H75">
+        <v>0.08464176209573153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1416593757365197</v>
+        <v>0.1257766276704163</v>
       </c>
       <c r="C76">
-        <v>0.0876605338866198</v>
+        <v>0.1141848717172445</v>
       </c>
       <c r="D76">
-        <v>-0.01111894405492282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01014059704130021</v>
+      </c>
+      <c r="E76">
+        <v>-0.1184687748001425</v>
+      </c>
+      <c r="F76">
+        <v>-0.01666854553161707</v>
+      </c>
+      <c r="G76">
+        <v>-0.03975353251854041</v>
+      </c>
+      <c r="H76">
+        <v>-0.01663214393197836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06312969038988255</v>
+        <v>0.0588925430257156</v>
       </c>
       <c r="C77">
-        <v>0.05775442268068454</v>
+        <v>0.07224479652723793</v>
       </c>
       <c r="D77">
-        <v>0.03279570578491078</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1279053932427484</v>
+      </c>
+      <c r="E77">
+        <v>-0.225715022748128</v>
+      </c>
+      <c r="F77">
+        <v>0.289426851235613</v>
+      </c>
+      <c r="G77">
+        <v>0.2824885381647125</v>
+      </c>
+      <c r="H77">
+        <v>0.3432074095298826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04150246905507525</v>
+        <v>0.04298332705019649</v>
       </c>
       <c r="C78">
-        <v>0.05427822785142601</v>
+        <v>0.06728506546563789</v>
       </c>
       <c r="D78">
-        <v>0.1191960823236488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1338415302088709</v>
+      </c>
+      <c r="E78">
+        <v>-0.01541572093829925</v>
+      </c>
+      <c r="F78">
+        <v>-0.01009292729545845</v>
+      </c>
+      <c r="G78">
+        <v>-0.01146982858282446</v>
+      </c>
+      <c r="H78">
+        <v>-0.02601133790212521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02681747139780111</v>
+        <v>0.04582635553161497</v>
       </c>
       <c r="C79">
-        <v>0.08176388483945116</v>
+        <v>0.09330154068710381</v>
       </c>
       <c r="D79">
-        <v>-0.06561570126718573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02377484353205666</v>
+      </c>
+      <c r="E79">
+        <v>-0.2244969033946676</v>
+      </c>
+      <c r="F79">
+        <v>-0.1394228767776378</v>
+      </c>
+      <c r="G79">
+        <v>-0.7362551311276961</v>
+      </c>
+      <c r="H79">
+        <v>0.3654216578389788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03278294989108403</v>
+        <v>0.02527177201625483</v>
       </c>
       <c r="C80">
-        <v>0.03080720403787381</v>
+        <v>0.04668099445633222</v>
       </c>
       <c r="D80">
-        <v>0.0201647329775908</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0249290922868998</v>
+      </c>
+      <c r="E80">
+        <v>-0.02264049131223545</v>
+      </c>
+      <c r="F80">
+        <v>-0.003974363593099192</v>
+      </c>
+      <c r="G80">
+        <v>0.03278026438777255</v>
+      </c>
+      <c r="H80">
+        <v>-0.01131355792263845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1457548867867863</v>
+        <v>0.1260681826523049</v>
       </c>
       <c r="C81">
-        <v>0.09669664573872547</v>
+        <v>0.1209761519585596</v>
       </c>
       <c r="D81">
-        <v>-0.06230619126826953</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07178455778643215</v>
+      </c>
+      <c r="E81">
+        <v>-0.1116004918863579</v>
+      </c>
+      <c r="F81">
+        <v>-0.02266589102744178</v>
+      </c>
+      <c r="G81">
+        <v>-0.0412862666614064</v>
+      </c>
+      <c r="H81">
+        <v>-0.002529382553522574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3164987951393589</v>
+        <v>0.2541102717794974</v>
       </c>
       <c r="C82">
-        <v>0.2530737729415415</v>
+        <v>0.2628610711730323</v>
       </c>
       <c r="D82">
-        <v>-0.2342737457144757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2423379091001492</v>
+      </c>
+      <c r="E82">
+        <v>0.01392505659669812</v>
+      </c>
+      <c r="F82">
+        <v>-0.0474825499805879</v>
+      </c>
+      <c r="G82">
+        <v>-0.04593708526820589</v>
+      </c>
+      <c r="H82">
+        <v>-0.476339205889262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02884671444081329</v>
+        <v>0.02104431027177962</v>
       </c>
       <c r="C83">
-        <v>0.0508569139617521</v>
+        <v>0.05192361886511545</v>
       </c>
       <c r="D83">
-        <v>0.04600791577485078</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04553206541785016</v>
+      </c>
+      <c r="E83">
+        <v>-0.0178609983445915</v>
+      </c>
+      <c r="F83">
+        <v>0.05406498924424849</v>
+      </c>
+      <c r="G83">
+        <v>0.04621948573659849</v>
+      </c>
+      <c r="H83">
+        <v>-0.0009692007326717055</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007115550533223181</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004576354132728802</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01838059355044017</v>
+      </c>
+      <c r="E84">
+        <v>-0.01922506289259453</v>
+      </c>
+      <c r="F84">
+        <v>-0.01021169995240906</v>
+      </c>
+      <c r="G84">
+        <v>0.006190542408404326</v>
+      </c>
+      <c r="H84">
+        <v>-0.002491198339399818</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.178471481665156</v>
+        <v>0.155327605108923</v>
       </c>
       <c r="C85">
-        <v>0.09767645333860095</v>
+        <v>0.1361003125360568</v>
       </c>
       <c r="D85">
-        <v>-0.0331758151256693</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05919973158402188</v>
+      </c>
+      <c r="E85">
+        <v>-0.05236996242184202</v>
+      </c>
+      <c r="F85">
+        <v>-0.02210562856797094</v>
+      </c>
+      <c r="G85">
+        <v>-0.08996287335061977</v>
+      </c>
+      <c r="H85">
+        <v>0.07001073341413422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01667505523713825</v>
+        <v>0.02020005741950364</v>
       </c>
       <c r="C86">
-        <v>0.03412820271510827</v>
+        <v>0.02509610752512149</v>
       </c>
       <c r="D86">
-        <v>0.127799925283056</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1203791943393364</v>
+      </c>
+      <c r="E86">
+        <v>-0.003462086812867583</v>
+      </c>
+      <c r="F86">
+        <v>0.02021956453683469</v>
+      </c>
+      <c r="G86">
+        <v>0.007740800213213427</v>
+      </c>
+      <c r="H86">
+        <v>-0.07208990169166432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02839242355090926</v>
+        <v>0.03532714301144048</v>
       </c>
       <c r="C87">
-        <v>0.006522803033633047</v>
+        <v>0.02471807193510235</v>
       </c>
       <c r="D87">
-        <v>0.09863888773657405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1367990489168566</v>
+      </c>
+      <c r="E87">
+        <v>-0.0754291634507685</v>
+      </c>
+      <c r="F87">
+        <v>0.00507189833052564</v>
+      </c>
+      <c r="G87">
+        <v>0.01960643888888495</v>
+      </c>
+      <c r="H87">
+        <v>-0.02434218035924022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07723007940028227</v>
+        <v>0.0694652244051039</v>
       </c>
       <c r="C88">
-        <v>0.03404274355799337</v>
+        <v>0.0533192886851503</v>
       </c>
       <c r="D88">
-        <v>0.04684675366395956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02729214603346376</v>
+      </c>
+      <c r="E88">
+        <v>0.002100008697003658</v>
+      </c>
+      <c r="F88">
+        <v>-0.02001718962886737</v>
+      </c>
+      <c r="G88">
+        <v>-0.008945127249359792</v>
+      </c>
+      <c r="H88">
+        <v>-0.03195882284507622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.206393672884572</v>
+        <v>0.282985911574339</v>
       </c>
       <c r="C89">
-        <v>-0.396457393919187</v>
+        <v>-0.3542125172126385</v>
       </c>
       <c r="D89">
-        <v>-0.03090971277525549</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.002927255909501122</v>
+      </c>
+      <c r="E89">
+        <v>-0.0434965223777537</v>
+      </c>
+      <c r="F89">
+        <v>0.0397183970517345</v>
+      </c>
+      <c r="G89">
+        <v>-0.0480011332714543</v>
+      </c>
+      <c r="H89">
+        <v>-0.07565927683759625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1920740197909173</v>
+        <v>0.2401461517724906</v>
       </c>
       <c r="C90">
-        <v>-0.3015743233032334</v>
+        <v>-0.2498152687781438</v>
       </c>
       <c r="D90">
-        <v>-0.01320746053962261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01903160512980801</v>
+      </c>
+      <c r="E90">
+        <v>-0.05188619608678904</v>
+      </c>
+      <c r="F90">
+        <v>-0.004291040912688049</v>
+      </c>
+      <c r="G90">
+        <v>0.05605867405840953</v>
+      </c>
+      <c r="H90">
+        <v>-0.04314660572649724</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1874077038489716</v>
+        <v>0.1572556156416647</v>
       </c>
       <c r="C91">
-        <v>0.1399761917429171</v>
+        <v>0.1586616428047057</v>
       </c>
       <c r="D91">
-        <v>-0.08234983801200364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08458568079892448</v>
+      </c>
+      <c r="E91">
+        <v>-0.1077661541737096</v>
+      </c>
+      <c r="F91">
+        <v>-0.01868507806718719</v>
+      </c>
+      <c r="G91">
+        <v>-0.0872028054924489</v>
+      </c>
+      <c r="H91">
+        <v>0.07610668107927687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1691101268124229</v>
+        <v>0.2256133999465066</v>
       </c>
       <c r="C92">
-        <v>-0.2985994382553452</v>
+        <v>-0.2708101582913022</v>
       </c>
       <c r="D92">
-        <v>0.009709353941147849</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03343578783599115</v>
+      </c>
+      <c r="E92">
+        <v>-0.09503277418872444</v>
+      </c>
+      <c r="F92">
+        <v>0.004446978414302538</v>
+      </c>
+      <c r="G92">
+        <v>0.02303835490956068</v>
+      </c>
+      <c r="H92">
+        <v>-0.04231488186788258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2165556998801682</v>
+        <v>0.2629525081417538</v>
       </c>
       <c r="C93">
-        <v>-0.3209089960432885</v>
+        <v>-0.2642852904816714</v>
       </c>
       <c r="D93">
-        <v>0.005115311969526322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003256334121493951</v>
+      </c>
+      <c r="E93">
+        <v>-0.005139877037027889</v>
+      </c>
+      <c r="F93">
+        <v>-0.01633979242414221</v>
+      </c>
+      <c r="G93">
+        <v>-0.007683405056340231</v>
+      </c>
+      <c r="H93">
+        <v>0.006757019757362035</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3992155306135535</v>
+        <v>0.3366576488768394</v>
       </c>
       <c r="C94">
-        <v>0.2061716720842763</v>
+        <v>0.2625550159254838</v>
       </c>
       <c r="D94">
-        <v>-0.4505049610475019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4320683945432633</v>
+      </c>
+      <c r="E94">
+        <v>-0.08505089081979723</v>
+      </c>
+      <c r="F94">
+        <v>-0.00284974146477795</v>
+      </c>
+      <c r="G94">
+        <v>0.4381995067686903</v>
+      </c>
+      <c r="H94">
+        <v>0.2034936357938927</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07822846464354553</v>
+        <v>0.06816731744710816</v>
       </c>
       <c r="C95">
-        <v>0.06146294189432221</v>
+        <v>0.06723438817873818</v>
       </c>
       <c r="D95">
-        <v>0.1007430594436008</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07733261396696389</v>
+      </c>
+      <c r="E95">
+        <v>-0.01585986176595067</v>
+      </c>
+      <c r="F95">
+        <v>0.9025424284935136</v>
+      </c>
+      <c r="G95">
+        <v>-0.1680127583166551</v>
+      </c>
+      <c r="H95">
+        <v>-0.02705025266155701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1721355858839373</v>
+        <v>0.1626833568951043</v>
       </c>
       <c r="C98">
-        <v>0.0188372358773141</v>
+        <v>0.06710191313547509</v>
       </c>
       <c r="D98">
-        <v>0.1807778683659397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.125710116426966</v>
+      </c>
+      <c r="E98">
+        <v>0.3111363242736601</v>
+      </c>
+      <c r="F98">
+        <v>-0.04661504272269114</v>
+      </c>
+      <c r="G98">
+        <v>-0.05454260988191383</v>
+      </c>
+      <c r="H98">
+        <v>0.05520885012999164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003578441742818432</v>
+        <v>0.005235099892114681</v>
       </c>
       <c r="C101">
-        <v>0.01707046953298895</v>
+        <v>0.02147155585169323</v>
       </c>
       <c r="D101">
-        <v>0.07031523365347282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08827219347547306</v>
+      </c>
+      <c r="E101">
+        <v>-0.03105401083629548</v>
+      </c>
+      <c r="F101">
+        <v>-0.01406522195517538</v>
+      </c>
+      <c r="G101">
+        <v>-0.007038763978387491</v>
+      </c>
+      <c r="H101">
+        <v>-0.09975502701920641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1298720852797876</v>
+        <v>0.1050475028086558</v>
       </c>
       <c r="C102">
-        <v>0.1104745714849922</v>
+        <v>0.1194392900506972</v>
       </c>
       <c r="D102">
-        <v>-0.04834791456293062</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06479581817506902</v>
+      </c>
+      <c r="E102">
+        <v>-0.02572357159715142</v>
+      </c>
+      <c r="F102">
+        <v>0.02528892200032789</v>
+      </c>
+      <c r="G102">
+        <v>-0.03011369831712957</v>
+      </c>
+      <c r="H102">
+        <v>-0.0457503295828283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
